--- a/biology/Zoologie/David_Attenborough/David_Attenborough.xlsx
+++ b/biology/Zoologie/David_Attenborough/David_Attenborough.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Attenborough est un rédacteur scientifique, écrivain et naturaliste britannique né le 8 mai 1926 à Londres (Royaume-Uni). Menant une carrière professionnelle dans le monde des médias privés et publics, il a été à la fois acteur et technicien, scénariste et réalisateur, producteur privé, mais aussi journaliste télévisé, contrôleur de la chaîne BBC Two, responsable et cadre manager à la BBC, directeur de programme dans les années 1960 et 1970.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">David Attenborough naît à Isleworth, un quartier de l'ouest londonien. Il est le frère de l'acteur, réalisateur et producteur Richard Attenborough. Il grandit avec son frère aîné Richard et son jeune frère John sur le campus du collège universitaire de Leicester, où son père est nommé recteur en 1932. Ses parents, Frederick et Mary (née Clegg) participent pendant la Seconde Guerre mondiale au programme caritatif Kindertransport, en accueillant deux jeunes filles juives réfugiées d'Europe. Une des jeunes rescapées lui donne une pièce d'ambre, comportant en inclusion des insectes fossilisés[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David Attenborough naît à Isleworth, un quartier de l'ouest londonien. Il est le frère de l'acteur, réalisateur et producteur Richard Attenborough. Il grandit avec son frère aîné Richard et son jeune frère John sur le campus du collège universitaire de Leicester, où son père est nommé recteur en 1932. Ses parents, Frederick et Mary (née Clegg) participent pendant la Seconde Guerre mondiale au programme caritatif Kindertransport, en accueillant deux jeunes filles juives réfugiées d'Europe. Une des jeunes rescapées lui donne une pièce d'ambre, comportant en inclusion des insectes fossilisés.
 David est attiré dès son enfance par l'observation, au point de constituer des collections de pierres et de fossiles, et de s'intéresser à la préservation des autres spécimens naturels. 
 L'apprenti naturaliste fréquente les réserves et les chercheurs de l'université, et se captive pour les rares documentaires naturalistes qu'il voit au cinéma : à 11 ans, le jeune David apprend que le département de zoologie voisin a besoin d'un grand nombre de tritons ou de salamandres pour ses études et cours. David, s'engage à les fournir au département en faisant payer trois pennies par animal. 
 En 1936, David et son frère Richard assistent à une conférence d'Archibald Belaney au Hall de Montfort à Leicester. Cet écrivain spécialiste de la faune et de la flore canadienne les sensibilise avec des exemples concrets, notamment le castor et le saumon, à la préservation de la vie sauvage et des milieux naturels partout menacés durant l'entre-deux-guerres. Richard lui consacre un documentaire en 1999. 
@@ -525,7 +539,7 @@
 Jean Dorst, membre de l'Institut et directeur du Muséum d'histoire naturelle, traduit et adapte son opus La Planète vivante à destination du public francophone en 1984.
 Attenborough est anobli par la reine Élisabeth II en 1985. Son épouse meurt en 1997 d'une hémorragie cérébrale. Le couple a deux enfants, Robert, maître de conférence en anthropologie du vivant à l'école d'archéologie et d'anthropologie de l'université de Canberra, et Susan, directrice d'école primaire.
 Il est narrateur dans de nombreux documentaires animaliers pour la BBC, et notamment la série Wildlife on One.
-Au cours de soixante ans de carrière, David Attenborough avec l'aide de ses multiples équipes de tournage de documentaires naturalistes ou animaliers emploie une large gamme de techniques de plus en plus sophistiquées, à des fins d'enregistrements et de prise de vue et/ou d'images, mais aussi de sons, pour réaliser des films, d'abord en noir et blanc puis en couleur, puis de la HD à la 3D, avec images de synthèse ou recomposées[2]…
+Au cours de soixante ans de carrière, David Attenborough avec l'aide de ses multiples équipes de tournage de documentaires naturalistes ou animaliers emploie une large gamme de techniques de plus en plus sophistiquées, à des fins d'enregistrements et de prise de vue et/ou d'images, mais aussi de sons, pour réaliser des films, d'abord en noir et blanc puis en couleur, puis de la HD à la 3D, avec images de synthèse ou recomposées…
 </t>
         </is>
       </c>
@@ -554,11 +568,13 @@
           <t>Engagement écologique et critiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'est souvent prononcé en faveur du développement durable et de la protection de l'environnement terrestre, et ne cesse de proposer des solutions écologiques face aux problèmes générés par une économie extractiviste et de consommation mondialisée. Sa théorie sur la population mondiale rencontre de nombreux échos ; il écrit notamment : « Au lieu de contrôler l'environnement de la planète pour le bénéfice de la population, peut-être devrions-nous contrôler la population pour assurer la survie de notre environnement ».[réf. nécessaire]
 Il présente le documentaire Climate Change – The Facts consacré au changement climatique, diffusé en 2019.
-Il a rencontré en 2020 et 2021 Greta Thunberg (qui dit avoir été en partie sensibilisée à l'environnement par les films de David Attenborough)[3] ; elle est venue l'interroger à Londres[4].
+Il a rencontré en 2020 et 2021 Greta Thunberg (qui dit avoir été en partie sensibilisée à l'environnement par les films de David Attenborough) ; elle est venue l'interroger à Londres.
 </t>
         </is>
       </c>
@@ -587,9 +603,11 @@
           <t>Espèces nommées d'après Attenborough</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au moins 20 espèces et genres, vivants ou éteints, ont été nommés en l'honneur d'Attenborough[5]. Les plantes portant son nom comprennent une épervière alpine (Hieracium attenboroughianum) découverte dans les Brecon Beacons[6],une espèce d'arbre à fleurs équatorien (Blakea attenboroughi), l'une des plus grandes plantes carnivores à poignées du monde (Nepenthes attenboroughii), ainsi qu'un genre de plantes à fleurs (Sirdavidia)[7]. Parmi les arthropodes portant le nom d'Attenborough figurent un papillon, le satyre aux yeux noirs d'Attenborough (Euptychia attenboroughi)[8], une libellule, l'acisome d'Attenborough (Acisoma attenboroughi)[9], une araignée gobelin de quelques millimètres de long (Prethopalpus attenboroughi), une araignée ornée à visage souriant des Caraïbes (Spintharus davidattenboroughi)[10],[11], un charançon sans ailes indonésien (Trigonopterus attenboroughi)[12],[13], une crevette fantôme de Madagascar (Ctenocheloides attenboroughi), et un escargot de terre (Palaina attenboroughi). Le monogène Cichlidogyrus attenboroughi, parasite d'un poisson des profondeurs du lac Tanganyika, est probablement la seule espèce de parasite portant son nom[14]. Des vertébrés ont également été nommés d'après Attenborough, notamment un lézard de Namibie (Platysaurus attenboroughi)[15], un oiseau (Polioptila attenboroughi)[16], une grenouille péruvienne (Pristimantis attenboroughi)[17], une grenouille à souche malgache (Stumpffia davidattenboroughi)[18], et l'une des quatre seules espèces d'échidnés à long bec (Zaglossus attenboroughi)[19].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au moins 20 espèces et genres, vivants ou éteints, ont été nommés en l'honneur d'Attenborough. Les plantes portant son nom comprennent une épervière alpine (Hieracium attenboroughianum) découverte dans les Brecon Beacons,une espèce d'arbre à fleurs équatorien (Blakea attenboroughi), l'une des plus grandes plantes carnivores à poignées du monde (Nepenthes attenboroughii), ainsi qu'un genre de plantes à fleurs (Sirdavidia). Parmi les arthropodes portant le nom d'Attenborough figurent un papillon, le satyre aux yeux noirs d'Attenborough (Euptychia attenboroughi), une libellule, l'acisome d'Attenborough (Acisoma attenboroughi), une araignée gobelin de quelques millimètres de long (Prethopalpus attenboroughi), une araignée ornée à visage souriant des Caraïbes (Spintharus davidattenboroughi) un charançon sans ailes indonésien (Trigonopterus attenboroughi) une crevette fantôme de Madagascar (Ctenocheloides attenboroughi), et un escargot de terre (Palaina attenboroughi). Le monogène Cichlidogyrus attenboroughi, parasite d'un poisson des profondeurs du lac Tanganyika, est probablement la seule espèce de parasite portant son nom. Des vertébrés ont également été nommés d'après Attenborough, notamment un lézard de Namibie (Platysaurus attenboroughi), un oiseau (Polioptila attenboroughi), une grenouille péruvienne (Pristimantis attenboroughi), une grenouille à souche malgache (Stumpffia davidattenboroughi), et l'une des quatre seules espèces d'échidnés à long bec (Zaglossus attenboroughi).
 Un reptile marin du mezozoique de la famille des pliosauridae, Attenborosaure (Attenborosaurus conybeari).
 L'épithète Conybeari est aussi nommé en l'honneur de William Conybeari.
 </t>
@@ -622,8 +640,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Comme scénariste
-1971 : A Blank on the Map (TV)
+          <t>Comme scénariste</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1971 : A Blank on the Map (TV)
 1987 : The First Eden (en) (feuilleton TV)
 1996 : Cities of the Wild
 1996 : Survival Island
@@ -633,21 +656,89 @@
 2000 : Bowerbirds: The Art of Seduction (TV)
 2000 : The Lost Gods of Easter Island (en) (TV)
 2002 : The Lost Gods of Easter Island (en) (feuilleton TV)
-2003 : La Planète bleue (The Blue Planet)[20]
+2003 : La Planète bleue (The Blue Planet)
 2004 : The Amber Time Machine (TV)
 2005 : La Vie dans les sous-bois (Life in the Undergrowth) (feuilleton TV)
 2006 : Are We Changing Planet Earth? (en) (TV)
 2007 : Un jour sur Terre (Earth)
-2009 : Life, l'aventure de la vie (en) (Life, diffusée sur Arte en été 2010[21]).
+2009 : Life, l'aventure de la vie (en) (Life, diffusée sur Arte en été 2010).
 2013 : Le Triomphe des vertébrés : L'Évolution en marche (Rise of Animals: Triumph of the Vertebrates - From the Seas to the Skies)
 2013 : Le Triomphe des vertébrés : Le Règne des mammifères (Rise of Animals: Triumph of the Vertebrates - Dawn of the Mammals)
 2013 : Curiosités animales (David Attenborough's Natural Curiosities)
 2014 : Le museum prend vie (en) (David Attenborough's Natural History Museum Alive)
-2015 : David Attenborough's Conquest of the Skies 3D (en)
-Comme producteur
-1952 : Animal, Vegetable, Mineral? (série TV)
-Comme acteur
-1956 : Pantomania, or Dick Whittington (TV)
+2015 : David Attenborough's Conquest of the Skies 3D (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>David_Attenborough</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Attenborough</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Comme producteur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1952 : Animal, Vegetable, Mineral? (série TV)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>David_Attenborough</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Attenborough</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Comme acteur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1956 : Pantomania, or Dick Whittington (TV)
 1985 : Zoo (A Zed and two noughts) de Peter Greenaway avec Brian Deacon et Andréa Ferréol : Narrateur
 2006 : Planète Terre : Narrateur
 2016 : Planète Terre II : Narrateur
@@ -657,41 +748,43 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>David_Attenborough</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/David_Attenborough</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Distinctions et prix</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Commandeur de l'Ordre de l'Empire britannique (CBE - 1974)
 Membre de la Royal Society (FRS - 1983)
-Chevalier (Knight Bachelor - 1985)[22]
+Chevalier (Knight Bachelor - 1985)
 Commandeur de l'ordre royal de Victoria (CVO - 1991)
 Membre de l'ordre des compagnons d'honneur (CH - 1996)
 Médaille internationale de Kew Gardens (1996)
 Membre de l'ordre du Mérite britannique (OM - 2005)
 Prix Prince des Asturies en sciences sociales (2010)
-Chevalier grand-croix dans l'Ordre de Saint-Michel et Saint-Georges (GCMG - 2020)[23]
+Chevalier grand-croix dans l'Ordre de Saint-Michel et Saint-Georges (GCMG - 2020)
 Plusieurs taxons lui ont été dédiés :
 Attenborosaurus conybeari, Bakker, 1993
 Blakea attenboroughii, Jost, 2007
